--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>jakkam</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Checkout_001_OnlyFree</t>
   </si>
 </sst>
 </file>
@@ -414,64 +420,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8106637137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>Checkout_001_OnlyFree</t>
+  </si>
+  <si>
+    <t>b_fname</t>
+  </si>
+  <si>
+    <t>b_lname</t>
+  </si>
+  <si>
+    <t>b_mobile</t>
+  </si>
+  <si>
+    <t>Sairam</t>
+  </si>
+  <si>
+    <t>interstedIn</t>
+  </si>
+  <si>
+    <t>canuhelpwith</t>
+  </si>
+  <si>
+    <t>AboutMe</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>robotics</t>
+  </si>
+  <si>
+    <t>automobile</t>
+  </si>
+  <si>
+    <t>Hi there! I'm sairam, a walking paradox of caffeine-fueled energy and occasional nap enthusiast. By day, I'm a Qa, tackling tasks with the grace of a ninja and the charm of a puppy. By night, I transform into a Netflix connoisseur, expertly navigating the treacherous waters of endless scrolling</t>
+  </si>
+  <si>
+    <t>Picture this: You, cruising down the highway with the wind in your hair and your favorite tunes blasting from the speakers. Whether you're a speed demon or a laid-back Sunday driver, our range of automobiles has something for everyone.</t>
   </si>
 </sst>
 </file>
@@ -102,9 +138,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -433,10 +477,15 @@
     <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79.26953125" customWidth="1"/>
+    <col min="14" max="14" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -458,28 +507,70 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="130.5">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>8106637137</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8106637137</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="633" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="logincred" sheetId="1" r:id="rId1"/>
+    <sheet name="logincred" sheetId="2" r:id="rId1"/>
+    <sheet name="Email" sheetId="3" r:id="rId2"/>
+    <sheet name="emaildata" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -30,70 +32,136 @@
     <t>Namo@12345</t>
   </si>
   <si>
+    <t>a_fname</t>
+  </si>
+  <si>
+    <t>a_lname</t>
+  </si>
+  <si>
+    <t>a_mail</t>
+  </si>
+  <si>
+    <t>a_mobile</t>
+  </si>
+  <si>
+    <t>jakkamsairam333@gmail.com</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>jakkam</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Checkout_001_OnlyFree</t>
+  </si>
+  <si>
+    <t>b_fname</t>
+  </si>
+  <si>
+    <t>b_lname</t>
+  </si>
+  <si>
+    <t>b_mobile</t>
+  </si>
+  <si>
+    <t>Sairam</t>
+  </si>
+  <si>
+    <t>interstedIn</t>
+  </si>
+  <si>
+    <t>canuhelpwith</t>
+  </si>
+  <si>
+    <t>AboutMe</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>robotics</t>
+  </si>
+  <si>
+    <t>automobile</t>
+  </si>
+  <si>
+    <t>Hi there! I'm sairam, a walking paradox of caffeine-fueled energy and occasional nap enthusiast. By day, I'm a Qa, tackling tasks with the grace of a ninja and the charm of a puppy. By night, I transform into a Netflix connoisseur, expertly navigating the treacherous waters of endless scrolling</t>
+  </si>
+  <si>
+    <t>Picture this: You, cruising down the highway with the wind in your hair and your favorite tunes blasting from the speakers. Whether you're a speed demon or a laid-back Sunday driver, our range of automobiles has something for everyone.</t>
+  </si>
+  <si>
     <t>sairam@eventtitans.com</t>
   </si>
   <si>
-    <t>a_fname</t>
-  </si>
-  <si>
-    <t>a_lname</t>
-  </si>
-  <si>
-    <t>a_mail</t>
-  </si>
-  <si>
-    <t>a_mobile</t>
-  </si>
-  <si>
-    <t>jakkamsairam333@gmail.com</t>
-  </si>
-  <si>
-    <t>rahul</t>
-  </si>
-  <si>
-    <t>jakkam</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Checkout_001_OnlyFree</t>
-  </si>
-  <si>
-    <t>b_fname</t>
-  </si>
-  <si>
-    <t>b_lname</t>
-  </si>
-  <si>
-    <t>b_mobile</t>
-  </si>
-  <si>
-    <t>Sairam</t>
-  </si>
-  <si>
-    <t>interstedIn</t>
-  </si>
-  <si>
-    <t>canuhelpwith</t>
-  </si>
-  <si>
-    <t>AboutMe</t>
-  </si>
-  <si>
-    <t>Pitch</t>
-  </si>
-  <si>
-    <t>robotics</t>
-  </si>
-  <si>
-    <t>automobile</t>
-  </si>
-  <si>
-    <t>Hi there! I'm sairam, a walking paradox of caffeine-fueled energy and occasional nap enthusiast. By day, I'm a Qa, tackling tasks with the grace of a ninja and the charm of a puppy. By night, I transform into a Netflix connoisseur, expertly navigating the treacherous waters of endless scrolling</t>
-  </si>
-  <si>
-    <t>Picture this: You, cruising down the highway with the wind in your hair and your favorite tunes blasting from the speakers. Whether you're a speed demon or a laid-back Sunday driver, our range of automobiles has something for everyone.</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>coupon_code</t>
+  </si>
+  <si>
+    <t>jakkamsairam3@gmail.com</t>
+  </si>
+  <si>
+    <t>Vision2024</t>
+  </si>
+  <si>
+    <t>BuyFor_Attendee</t>
+  </si>
+  <si>
+    <t>fname_buyer</t>
+  </si>
+  <si>
+    <t>lname_buyer</t>
+  </si>
+  <si>
+    <t>mobile_buyer</t>
+  </si>
+  <si>
+    <t>sairam</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>A_fname</t>
+  </si>
+  <si>
+    <t>A_lname</t>
+  </si>
+  <si>
+    <t>A_Email</t>
+  </si>
+  <si>
+    <t>A_mobile</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>company name_A</t>
+  </si>
+  <si>
+    <t>Job title_A</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Attendee2Email</t>
+  </si>
+  <si>
+    <t>sairam810@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -138,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -146,9 +214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,111 +538,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79.26953125" customWidth="1"/>
-    <col min="14" max="14" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.08984375" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="45.26953125" customWidth="1"/>
+    <col min="14" max="14" width="50.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="29">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="92" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="G2" s="1">
+        <v>8106637137</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8106637137</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="130.5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8106637137</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>8106637137</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -581,4 +648,181 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="29">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="91.5" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>8106637137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>8106637137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="Q2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Username</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>sairam810@mailinator.com</t>
+  </si>
+  <si>
+    <t>Vision20244</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -693,7 +696,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -705,7 +708,7 @@
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" customWidth="1"/>
     <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
     <col min="11" max="11" width="19.26953125" customWidth="1"/>
     <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.81640625" customWidth="1"/>
@@ -769,7 +772,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>sairam810@mailinator.com</t>
-  </si>
-  <si>
-    <t>Vision20244</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,7 +693,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -772,7 +769,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
-    <sheet name="Email" sheetId="3" r:id="rId2"/>
+    <sheet name="ExistingEmaillogin" sheetId="3" r:id="rId2"/>
     <sheet name="emaildata" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Username</t>
   </si>
@@ -161,7 +161,25 @@
     <t>Attendee2Email</t>
   </si>
   <si>
-    <t>sairam810@mailinator.com</t>
+    <t>LoginVerificationUrl</t>
+  </si>
+  <si>
+    <t>https://www.tickets99.com/buy/vision-2024/ticket</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>phonepe_transID</t>
+  </si>
+  <si>
+    <t>T1234567891234567890123</t>
+  </si>
+  <si>
+    <t>Amazon_transID</t>
+  </si>
+  <si>
+    <t>sairam9991@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -528,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -652,37 +670,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:13" ht="29">
       <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8106637137</v>
+      </c>
+      <c r="I2">
+        <v>8106637137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -693,7 +789,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -766,7 +862,7 @@
     </row>
     <row r="2" spans="1:17" ht="91.5" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -819,9 +915,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="Q2" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="633" activeTab="2"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
     <sheet name="ExistingEmaillogin" sheetId="3" r:id="rId2"/>
     <sheet name="emaildata" sheetId="4" r:id="rId3"/>
+    <sheet name="MobileNumberFree" sheetId="5" r:id="rId4"/>
+    <sheet name="MobileNumberUpi" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>Username</t>
   </si>
@@ -180,12 +182,157 @@
   </si>
   <si>
     <t>sairam9991@mailinator.com</t>
+  </si>
+  <si>
+    <t>Vip order</t>
+  </si>
+  <si>
+    <t>Free order</t>
+  </si>
+  <si>
+    <t>free order id_UPI</t>
+  </si>
+  <si>
+    <t>Vip order id_UPI</t>
+  </si>
+  <si>
+    <t>free order id_amazon</t>
+  </si>
+  <si>
+    <t>Vip order id_amazon</t>
+  </si>
+  <si>
+    <t>Attendee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendee </t>
+  </si>
+  <si>
+    <t>paid order amazon id</t>
+  </si>
+  <si>
+    <t>mobile Number</t>
+  </si>
+  <si>
+    <t>b_firstname</t>
+  </si>
+  <si>
+    <t>b_lastname</t>
+  </si>
+  <si>
+    <t>b_email</t>
+  </si>
+  <si>
+    <t>a_email</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>raj@gmail.com</t>
+  </si>
+  <si>
+    <t>Free_orderid</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>help me with</t>
+  </si>
+  <si>
+    <t>about me</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>astrology</t>
+  </si>
+  <si>
+    <t>Cool guy</t>
+  </si>
+  <si>
+    <t>20240229045500137642</t>
+  </si>
+  <si>
+    <t>20240229045638137789</t>
+  </si>
+  <si>
+    <t>20240229045734137755</t>
+  </si>
+  <si>
+    <t>20240229045803137642</t>
+  </si>
+  <si>
+    <t>20240229045903137642</t>
+  </si>
+  <si>
+    <t>20240229055145137755</t>
+  </si>
+  <si>
+    <t>Jakkam</t>
+  </si>
+  <si>
+    <t>20240229060826137642</t>
+  </si>
+  <si>
+    <t>CouponCode</t>
+  </si>
+  <si>
+    <t>vision2024</t>
+  </si>
+  <si>
+    <t>phonepe Transaction Id</t>
+  </si>
+  <si>
+    <t>orderid free</t>
+  </si>
+  <si>
+    <t>paid order id phonepe</t>
+  </si>
+  <si>
+    <t>phonepe order id</t>
+  </si>
+  <si>
+    <t>Amazon Transaction id</t>
+  </si>
+  <si>
+    <t>Amazon order id</t>
+  </si>
+  <si>
+    <t>20240229073453137642</t>
+  </si>
+  <si>
+    <t>20240229084948137642</t>
+  </si>
+  <si>
+    <t>20240229101847137642</t>
+  </si>
+  <si>
+    <t>20240229103557137642</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -546,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,23 +701,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.08984375" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="45.26953125" customWidth="1"/>
-    <col min="14" max="14" width="50.08984375" customWidth="1"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="10" max="10" customWidth="true" width="25.08984375"/>
+    <col min="11" max="11" customWidth="true" width="14.90625"/>
+    <col min="12" max="12" customWidth="true" width="15.54296875"/>
+    <col min="13" max="13" customWidth="true" width="45.26953125"/>
+    <col min="14" max="14" customWidth="true" width="24.08984375"/>
+    <col min="15" max="15" customWidth="true" width="16.90625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="21.08984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29">
+    <row r="1" spans="1:18" ht="29">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -613,8 +762,20 @@
       <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="92" customHeight="1">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="92" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -656,6 +817,18 @@
       </c>
       <c r="N2" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -670,38 +843,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0"/>
+    <col min="2" max="2" customWidth="true" width="30.7265625"/>
+    <col min="3" max="3" customWidth="true" width="30.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875"/>
+    <col min="7" max="7" customWidth="true" width="18.0"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="24.08984375"/>
+    <col min="14" max="14" customWidth="true" width="27.26953125"/>
+    <col min="15" max="17" bestFit="true" customWidth="true" width="21.08984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -716,23 +891,38 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>51</v>
       </c>
+      <c r="N1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="29">
+    <row r="2" spans="1:18" ht="29">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -742,7 +932,7 @@
       <c r="C2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -757,20 +947,35 @@
       <c r="H2" s="1">
         <v>8106637137</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>50</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -786,62 +991,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" customWidth="true" width="13.36328125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="10" max="10" customWidth="true" width="16.1796875"/>
+    <col min="11" max="11" customWidth="true" width="19.26953125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="17" max="17" customWidth="true" width="16.81640625"/>
+    <col min="18" max="18" customWidth="true" width="21.36328125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="22.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" ht="29">
+      <c r="A1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -859,42 +1066,51 @@
       <c r="Q1" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="91.5" customHeight="1">
+    <row r="2" spans="1:20" ht="91.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -911,6 +1127,15 @@
       </c>
       <c r="Q2" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -921,4 +1146,249 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="0">
+        <v>8106637137</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H2" s="0">
+        <v>8106637137</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.1796875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="0">
+        <v>8106637137</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H2" s="0">
+        <v>8106637137</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="770" activeTab="4"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
   <si>
     <t>Username</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Jakkam</t>
   </si>
   <si>
-    <t>20240229060826137642</t>
-  </si>
-  <si>
     <t>CouponCode</t>
   </si>
   <si>
@@ -322,17 +319,16 @@
     <t>20240229084948137642</t>
   </si>
   <si>
-    <t>20240229101847137642</t>
-  </si>
-  <si>
     <t>20240229103557137642</t>
+  </si>
+  <si>
+    <t>20240229131746137755</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -693,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -709,14 +705,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="10" max="10" customWidth="true" width="25.08984375"/>
-    <col min="11" max="11" customWidth="true" width="14.90625"/>
-    <col min="12" max="12" customWidth="true" width="15.54296875"/>
-    <col min="13" max="13" customWidth="true" width="45.26953125"/>
-    <col min="14" max="14" customWidth="true" width="24.08984375"/>
-    <col min="15" max="15" customWidth="true" width="16.90625"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.08984375" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="45.26953125" customWidth="1"/>
+    <col min="14" max="14" width="24.08984375" customWidth="1"/>
+    <col min="15" max="15" width="16.90625" customWidth="1"/>
+    <col min="17" max="18" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29">
@@ -763,13 +759,13 @@
         <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>61</v>
@@ -818,16 +814,16 @@
       <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>81</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>85</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -845,38 +841,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0"/>
-    <col min="2" max="2" customWidth="true" width="30.7265625"/>
-    <col min="3" max="3" customWidth="true" width="30.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875"/>
-    <col min="7" max="7" customWidth="true" width="18.0"/>
-    <col min="8" max="8" customWidth="true" width="16.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="24.08984375"/>
-    <col min="14" max="14" customWidth="true" width="27.26953125"/>
-    <col min="15" max="17" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.26953125" customWidth="1"/>
+    <col min="15" max="17" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -891,34 +887,34 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -932,7 +928,7 @@
       <c r="C2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -947,34 +943,34 @@
       <c r="H2" s="1">
         <v>8106637137</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>8106637137</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s" s="0">
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>83</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="P2" t="s" s="0">
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>86</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -999,56 +995,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.08984375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="6" max="6" customWidth="true" width="13.36328125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="10" max="10" customWidth="true" width="16.1796875"/>
-    <col min="11" max="11" customWidth="true" width="19.26953125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="17" max="17" customWidth="true" width="16.81640625"/>
-    <col min="18" max="18" customWidth="true" width="21.36328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="22.6328125"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" customWidth="1"/>
+    <col min="18" max="18" width="21.36328125" customWidth="1"/>
+    <col min="19" max="19" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1080,37 +1076,37 @@
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>8106637137</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>8106637137</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1128,13 +1124,13 @@
       <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>82</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="S2" t="s">
         <v>82</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1158,113 +1154,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>8106637137</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>8106637137</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>79</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="P2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1282,106 +1278,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.1796875"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="L1" t="s" s="0">
+      <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="N1" t="s">
         <v>95</v>
-      </c>
-      <c r="N1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>8106637137</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>8106637137</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="N2" t="s" s="0">
+      <c r="M2" t="s">
         <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="770" activeTab="1"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="768" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
   <si>
     <t>Username</t>
   </si>
@@ -184,12 +184,6 @@
     <t>sairam9991@mailinator.com</t>
   </si>
   <si>
-    <t>Vip order</t>
-  </si>
-  <si>
-    <t>Free order</t>
-  </si>
-  <si>
     <t>free order id_UPI</t>
   </si>
   <si>
@@ -268,33 +262,12 @@
     <t>Cool guy</t>
   </si>
   <si>
-    <t>20240229045500137642</t>
-  </si>
-  <si>
-    <t>20240229045638137789</t>
-  </si>
-  <si>
-    <t>20240229045734137755</t>
-  </si>
-  <si>
-    <t>20240229045803137642</t>
-  </si>
-  <si>
-    <t>20240229045903137642</t>
-  </si>
-  <si>
-    <t>20240229055145137755</t>
-  </si>
-  <si>
     <t>Jakkam</t>
   </si>
   <si>
     <t>CouponCode</t>
   </si>
   <si>
-    <t>vision2024</t>
-  </si>
-  <si>
     <t>phonepe Transaction Id</t>
   </si>
   <si>
@@ -313,16 +286,52 @@
     <t>Amazon order id</t>
   </si>
   <si>
-    <t>20240229073453137642</t>
-  </si>
-  <si>
-    <t>20240229084948137642</t>
-  </si>
-  <si>
-    <t>20240229103557137642</t>
-  </si>
-  <si>
-    <t>20240229131746137755</t>
+    <t>20240301054913137642</t>
+  </si>
+  <si>
+    <t>20240301064318137755</t>
+  </si>
+  <si>
+    <t>20240301064807137755</t>
+  </si>
+  <si>
+    <t>20240301070546137642</t>
+  </si>
+  <si>
+    <t>20240301070637137755</t>
+  </si>
+  <si>
+    <t>20240301070812137642</t>
+  </si>
+  <si>
+    <t>vision2025</t>
+  </si>
+  <si>
+    <t>20240301075301137755</t>
+  </si>
+  <si>
+    <t>20240301092926137789</t>
+  </si>
+  <si>
+    <t>PhonpeTransactionId</t>
+  </si>
+  <si>
+    <t>Amazon TransID</t>
+  </si>
+  <si>
+    <t>20240301105947137789</t>
+  </si>
+  <si>
+    <t>Vip order ID_phonepe trans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free order_phonepe trans </t>
+  </si>
+  <si>
+    <t>Vip order ID_amazon trans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free order_amazontrans </t>
   </si>
 </sst>
 </file>
@@ -699,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -759,16 +768,16 @@
         <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="92" customHeight="1">
@@ -815,16 +824,16 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -841,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -903,19 +912,19 @@
         <v>51</v>
       </c>
       <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>57</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="29">
@@ -950,7 +959,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>50</v>
@@ -959,16 +968,16 @@
         <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
         <v>34</v>
@@ -987,10 +996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1008,9 +1017,14 @@
     <col min="17" max="17" width="16.81640625" customWidth="1"/>
     <col min="18" max="18" width="21.36328125" customWidth="1"/>
     <col min="19" max="19" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29">
+    <row r="1" spans="1:24" ht="58">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1063,21 +1077,33 @@
         <v>45</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="91.5" customHeight="1">
+    <row r="2" spans="1:24" ht="91.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -1125,13 +1151,19 @@
         <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
         <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1149,14 +1181,14 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
@@ -1166,19 +1198,19 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1190,28 +1222,28 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>73</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1225,13 +1257,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -1240,28 +1272,28 @@
         <v>8106637137</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>80</v>
-      </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1311,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1297,19 +1329,19 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1321,22 +1353,22 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="N1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1350,13 +1382,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -1365,19 +1397,19 @@
         <v>8106637137</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="141">
   <si>
     <t>Username</t>
   </si>
@@ -301,9 +301,6 @@
     <t>20240301070637137755</t>
   </si>
   <si>
-    <t>20240301070812137642</t>
-  </si>
-  <si>
     <t>vision2025</t>
   </si>
   <si>
@@ -332,12 +329,130 @@
   </si>
   <si>
     <t xml:space="preserve">Free order_amazontrans </t>
+  </si>
+  <si>
+    <t>20240304054436137755</t>
+  </si>
+  <si>
+    <t>vision2024</t>
+  </si>
+  <si>
+    <t>20240304060131137789</t>
+  </si>
+  <si>
+    <t>20240304061234137789</t>
+  </si>
+  <si>
+    <t>20240304061505137789</t>
+  </si>
+  <si>
+    <t>20240304061630137789</t>
+  </si>
+  <si>
+    <t>20240304063207137789</t>
+  </si>
+  <si>
+    <t>20240304070252137755</t>
+  </si>
+  <si>
+    <t>20240304070335137755</t>
+  </si>
+  <si>
+    <t>20240304070440137755</t>
+  </si>
+  <si>
+    <t>20240304070530137755</t>
+  </si>
+  <si>
+    <t>20240304070557137755</t>
+  </si>
+  <si>
+    <t>20240304070624137755</t>
+  </si>
+  <si>
+    <t>20240304070648137789</t>
+  </si>
+  <si>
+    <t>20240304070724137789</t>
+  </si>
+  <si>
+    <t>20240304070749137789</t>
+  </si>
+  <si>
+    <t>20240304071529137755</t>
+  </si>
+  <si>
+    <t>20240304074005137755</t>
+  </si>
+  <si>
+    <t>20240304074043137755</t>
+  </si>
+  <si>
+    <t>20240304074144137755</t>
+  </si>
+  <si>
+    <t>20240304074233137755</t>
+  </si>
+  <si>
+    <t>20240304074255137755</t>
+  </si>
+  <si>
+    <t>20240304074315137755</t>
+  </si>
+  <si>
+    <t>20240304074334137789</t>
+  </si>
+  <si>
+    <t>20240304074402137789</t>
+  </si>
+  <si>
+    <t>20240304074421137789</t>
+  </si>
+  <si>
+    <t>20240304093007137755</t>
+  </si>
+  <si>
+    <t>20240304094427137755</t>
+  </si>
+  <si>
+    <t>20240304095225137755</t>
+  </si>
+  <si>
+    <t>20240304095739137755</t>
+  </si>
+  <si>
+    <t>20240304100037137755</t>
+  </si>
+  <si>
+    <t>20240304100959137755</t>
+  </si>
+  <si>
+    <t>20240304101151137755</t>
+  </si>
+  <si>
+    <t>20240304102107137755</t>
+  </si>
+  <si>
+    <t>20240304102154137755</t>
+  </si>
+  <si>
+    <t>20240304102628137789</t>
+  </si>
+  <si>
+    <t>20240304102722137789</t>
+  </si>
+  <si>
+    <t>20240304102903137755</t>
+  </si>
+  <si>
+    <t>20240304103041137755</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -698,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,14 +829,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.08984375" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="45.26953125" customWidth="1"/>
-    <col min="14" max="14" width="24.08984375" customWidth="1"/>
-    <col min="15" max="15" width="16.90625" customWidth="1"/>
-    <col min="17" max="18" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="10" max="10" customWidth="true" width="25.08984375"/>
+    <col min="11" max="11" customWidth="true" width="14.90625"/>
+    <col min="12" max="12" customWidth="true" width="15.54296875"/>
+    <col min="13" max="13" customWidth="true" width="45.26953125"/>
+    <col min="14" max="14" customWidth="true" width="24.08984375"/>
+    <col min="15" max="15" customWidth="true" width="16.90625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="21.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29">
@@ -823,17 +938,17 @@
       <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>92</v>
+      <c r="O2" t="s" s="0">
+        <v>135</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" t="s">
-        <v>87</v>
+      <c r="Q2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -856,32 +971,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.26953125" customWidth="1"/>
-    <col min="15" max="17" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0"/>
+    <col min="2" max="2" customWidth="true" width="30.7265625"/>
+    <col min="3" max="3" customWidth="true" width="30.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875"/>
+    <col min="7" max="7" customWidth="true" width="18.0"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="24.08984375"/>
+    <col min="14" max="14" customWidth="true" width="27.26953125"/>
+    <col min="15" max="17" bestFit="true" customWidth="true" width="21.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -896,34 +1011,34 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>57</v>
       </c>
     </row>
@@ -937,7 +1052,7 @@
       <c r="C2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -952,34 +1067,34 @@
       <c r="H2" s="1">
         <v>8106637137</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>34</v>
       </c>
     </row>
@@ -999,66 +1114,66 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.81640625" customWidth="1"/>
-    <col min="18" max="18" width="21.36328125" customWidth="1"/>
-    <col min="19" max="19" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" customWidth="true" width="13.36328125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="10" max="10" customWidth="true" width="16.1796875"/>
+    <col min="11" max="11" customWidth="true" width="19.26953125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="17" max="17" customWidth="true" width="16.81640625"/>
+    <col min="18" max="18" customWidth="true" width="21.36328125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="22.6328125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.08984375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="24" max="24" customWidth="true" width="12.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="58">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" ht="43.5">
+      <c r="A1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1077,62 +1192,62 @@
         <v>45</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>58</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="W1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="91.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1150,19 +1265,19 @@
       <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="R2" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>50</v>
       </c>
     </row>
@@ -1186,113 +1301,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="2" max="2" customWidth="true" width="11.90625"/>
+    <col min="3" max="3" customWidth="true" width="12.7265625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>8106637137</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -1316,99 +1431,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>8106637137</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>88</v>
       </c>
     </row>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="169">
   <si>
     <t>Username</t>
   </si>
@@ -446,6 +446,90 @@
   </si>
   <si>
     <t>20240304103041137755</t>
+  </si>
+  <si>
+    <t>20240305044920137755</t>
+  </si>
+  <si>
+    <t>20240305045008137755</t>
+  </si>
+  <si>
+    <t>20240305045115137755</t>
+  </si>
+  <si>
+    <t>20240305045208137755</t>
+  </si>
+  <si>
+    <t>20240305045229137755</t>
+  </si>
+  <si>
+    <t>20240305045251137755</t>
+  </si>
+  <si>
+    <t>20240305045310137789</t>
+  </si>
+  <si>
+    <t>20240305045341137789</t>
+  </si>
+  <si>
+    <t>20240305045359137789</t>
+  </si>
+  <si>
+    <t>20240305090007137755</t>
+  </si>
+  <si>
+    <t>20240305090203137755</t>
+  </si>
+  <si>
+    <t>20240305090519137755</t>
+  </si>
+  <si>
+    <t>20240305090656137755</t>
+  </si>
+  <si>
+    <t>20240305091018137755</t>
+  </si>
+  <si>
+    <t>20240305091346137755</t>
+  </si>
+  <si>
+    <t>20240305091542137755</t>
+  </si>
+  <si>
+    <t>20240305091800137755</t>
+  </si>
+  <si>
+    <t>20240305112145137755</t>
+  </si>
+  <si>
+    <t>20240305112509137755</t>
+  </si>
+  <si>
+    <t>20240305112709137755</t>
+  </si>
+  <si>
+    <t>20240305112746137755</t>
+  </si>
+  <si>
+    <t>20240305112844137755</t>
+  </si>
+  <si>
+    <t>20240305112931137755</t>
+  </si>
+  <si>
+    <t>20240305112952137755</t>
+  </si>
+  <si>
+    <t>20240305113013137755</t>
+  </si>
+  <si>
+    <t>20240305113032137789</t>
+  </si>
+  <si>
+    <t>20240305113102137789</t>
+  </si>
+  <si>
+    <t>20240305113121137789</t>
   </si>
 </sst>
 </file>
@@ -939,16 +1023,16 @@
         <v>23</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1083,16 +1167,16 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>34</v>
@@ -1266,10 +1350,10 @@
         <v>27</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="T2" t="s" s="0">
         <v>34</v>
@@ -1390,7 +1474,7 @@
         <v>66</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>74</v>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="768" activeTab="2"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="768" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="130">
   <si>
     <t>Username</t>
   </si>
@@ -49,9 +49,6 @@
     <t>jakkamsairam333@gmail.com</t>
   </si>
   <si>
-    <t>rahul</t>
-  </si>
-  <si>
     <t>jakkam</t>
   </si>
   <si>
@@ -142,12 +139,6 @@
     <t>A_mobile</t>
   </si>
   <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
     <t>company name_A</t>
   </si>
   <si>
@@ -286,39 +277,21 @@
     <t>Amazon order id</t>
   </si>
   <si>
-    <t>20240301054913137642</t>
-  </si>
-  <si>
     <t>20240301064318137755</t>
   </si>
   <si>
     <t>20240301064807137755</t>
   </si>
   <si>
-    <t>20240301070546137642</t>
-  </si>
-  <si>
-    <t>20240301070637137755</t>
-  </si>
-  <si>
     <t>vision2025</t>
   </si>
   <si>
-    <t>20240301075301137755</t>
-  </si>
-  <si>
-    <t>20240301092926137789</t>
-  </si>
-  <si>
     <t>PhonpeTransactionId</t>
   </si>
   <si>
     <t>Amazon TransID</t>
   </si>
   <si>
-    <t>20240301105947137789</t>
-  </si>
-  <si>
     <t>Vip order ID_phonepe trans</t>
   </si>
   <si>
@@ -331,205 +304,115 @@
     <t xml:space="preserve">Free order_amazontrans </t>
   </si>
   <si>
-    <t>20240304054436137755</t>
-  </si>
-  <si>
     <t>vision2024</t>
   </si>
   <si>
-    <t>20240304060131137789</t>
-  </si>
-  <si>
-    <t>20240304061234137789</t>
-  </si>
-  <si>
-    <t>20240304061505137789</t>
-  </si>
-  <si>
-    <t>20240304061630137789</t>
-  </si>
-  <si>
-    <t>20240304063207137789</t>
-  </si>
-  <si>
-    <t>20240304070252137755</t>
-  </si>
-  <si>
-    <t>20240304070335137755</t>
-  </si>
-  <si>
-    <t>20240304070440137755</t>
-  </si>
-  <si>
-    <t>20240304070530137755</t>
-  </si>
-  <si>
-    <t>20240304070557137755</t>
-  </si>
-  <si>
-    <t>20240304070624137755</t>
-  </si>
-  <si>
-    <t>20240304070648137789</t>
-  </si>
-  <si>
-    <t>20240304070724137789</t>
-  </si>
-  <si>
-    <t>20240304070749137789</t>
-  </si>
-  <si>
-    <t>20240304071529137755</t>
-  </si>
-  <si>
-    <t>20240304074005137755</t>
-  </si>
-  <si>
-    <t>20240304074043137755</t>
-  </si>
-  <si>
-    <t>20240304074144137755</t>
-  </si>
-  <si>
-    <t>20240304074233137755</t>
-  </si>
-  <si>
-    <t>20240304074255137755</t>
-  </si>
-  <si>
-    <t>20240304074315137755</t>
-  </si>
-  <si>
-    <t>20240304074334137789</t>
-  </si>
-  <si>
-    <t>20240304074402137789</t>
-  </si>
-  <si>
-    <t>20240304074421137789</t>
-  </si>
-  <si>
-    <t>20240304093007137755</t>
-  </si>
-  <si>
-    <t>20240304094427137755</t>
-  </si>
-  <si>
-    <t>20240304095225137755</t>
-  </si>
-  <si>
-    <t>20240304095739137755</t>
-  </si>
-  <si>
-    <t>20240304100037137755</t>
-  </si>
-  <si>
-    <t>20240304100959137755</t>
-  </si>
-  <si>
-    <t>20240304101151137755</t>
-  </si>
-  <si>
-    <t>20240304102107137755</t>
-  </si>
-  <si>
-    <t>20240304102154137755</t>
-  </si>
-  <si>
-    <t>20240304102628137789</t>
-  </si>
-  <si>
-    <t>20240304102722137789</t>
-  </si>
-  <si>
-    <t>20240304102903137755</t>
-  </si>
-  <si>
-    <t>20240304103041137755</t>
-  </si>
-  <si>
-    <t>20240305044920137755</t>
-  </si>
-  <si>
-    <t>20240305045008137755</t>
-  </si>
-  <si>
-    <t>20240305045115137755</t>
-  </si>
-  <si>
-    <t>20240305045208137755</t>
-  </si>
-  <si>
-    <t>20240305045229137755</t>
-  </si>
-  <si>
-    <t>20240305045251137755</t>
-  </si>
-  <si>
-    <t>20240305045310137789</t>
-  </si>
-  <si>
-    <t>20240305045341137789</t>
-  </si>
-  <si>
-    <t>20240305045359137789</t>
-  </si>
-  <si>
-    <t>20240305090007137755</t>
-  </si>
-  <si>
-    <t>20240305090203137755</t>
-  </si>
-  <si>
-    <t>20240305090519137755</t>
-  </si>
-  <si>
-    <t>20240305090656137755</t>
-  </si>
-  <si>
-    <t>20240305091018137755</t>
-  </si>
-  <si>
-    <t>20240305091346137755</t>
-  </si>
-  <si>
-    <t>20240305091542137755</t>
-  </si>
-  <si>
-    <t>20240305091800137755</t>
-  </si>
-  <si>
-    <t>20240305112145137755</t>
-  </si>
-  <si>
-    <t>20240305112509137755</t>
-  </si>
-  <si>
-    <t>20240305112709137755</t>
-  </si>
-  <si>
-    <t>20240305112746137755</t>
-  </si>
-  <si>
-    <t>20240305112844137755</t>
-  </si>
-  <si>
-    <t>20240305112931137755</t>
-  </si>
-  <si>
-    <t>20240305112952137755</t>
-  </si>
-  <si>
-    <t>20240305113013137755</t>
-  </si>
-  <si>
-    <t>20240305113032137789</t>
-  </si>
-  <si>
-    <t>20240305113102137789</t>
-  </si>
-  <si>
-    <t>20240305113121137789</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Rupesh</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>sairam810@mailinator.com</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>20240307063942137789</t>
+  </si>
+  <si>
+    <t>20240307070609137755</t>
+  </si>
+  <si>
+    <t>20240307070646137755</t>
+  </si>
+  <si>
+    <t>20240307070750137755</t>
+  </si>
+  <si>
+    <t>20240307071007137755</t>
+  </si>
+  <si>
+    <t>20240307071037137755</t>
+  </si>
+  <si>
+    <t>20240307071103137755</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>20240307071253137789</t>
+  </si>
+  <si>
+    <t>20240307071330137789</t>
+  </si>
+  <si>
+    <t>20240307071353137789</t>
+  </si>
+  <si>
+    <t>20240307071619137755</t>
+  </si>
+  <si>
+    <t>20240307071701137755</t>
+  </si>
+  <si>
+    <t>20240307071803137755</t>
+  </si>
+  <si>
+    <t>20240307071904137755</t>
+  </si>
+  <si>
+    <t>20240307071930137755</t>
+  </si>
+  <si>
+    <t>20240307071953137755</t>
+  </si>
+  <si>
+    <t>20240307072016137789</t>
+  </si>
+  <si>
+    <t>20240307072051137789</t>
+  </si>
+  <si>
+    <t>20240307072112137789</t>
+  </si>
+  <si>
+    <t>20240307072753137755</t>
+  </si>
+  <si>
+    <t>20240307072830137755</t>
+  </si>
+  <si>
+    <t>20240307072936137755</t>
+  </si>
+  <si>
+    <t>20240307073030137755</t>
+  </si>
+  <si>
+    <t>20240307073053137755</t>
+  </si>
+  <si>
+    <t>20240307073120137755</t>
+  </si>
+  <si>
+    <t>20240307073145137789</t>
+  </si>
+  <si>
+    <t>20240307073225137789</t>
+  </si>
+  <si>
+    <t>20240307073246137789</t>
+  </si>
+  <si>
+    <t>20240307100228137789</t>
   </si>
 </sst>
 </file>
@@ -907,12 +790,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:R2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="6" max="6" customWidth="true" width="11.81640625"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
     <col min="10" max="10" customWidth="true" width="25.08984375"/>
     <col min="11" max="11" customWidth="true" width="14.90625"/>
@@ -925,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="29">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -946,93 +830,93 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="92" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1">
         <v>8106637137</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1">
         <v>8106637137</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="O2" t="s" s="0">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1049,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1072,16 +956,16 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1096,54 +980,54 @@
         <v>6</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K1" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="L1" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="P1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="R1" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="P1" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s" s="0">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="29">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -1155,31 +1039,31 @@
         <v>8106637137</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1197,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1225,144 +1109,144 @@
   <sheetData>
     <row r="1" spans="1:24" ht="43.5">
       <c r="A1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>26</v>
-      </c>
       <c r="C1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s" s="0">
+      <c r="F1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="G1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="I1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="J1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="K1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="K1" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="L1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="91.5" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0">
         <v>8106637137</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0">
         <v>8106637137</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1397,19 +1281,19 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>63</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>3</v>
@@ -1421,28 +1305,28 @@
         <v>6</v>
       </c>
       <c r="I1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="K1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="N1" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="O1" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="P1" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="N1" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="P1" t="s" s="0">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1450,49 +1334,49 @@
         <v>8106637137</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="0">
         <v>8106637137</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="O2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="M2" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>78</v>
-      </c>
       <c r="P2" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1528,19 +1412,19 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>63</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>3</v>
@@ -1552,22 +1436,22 @@
         <v>6</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="L1" t="s" s="0">
-        <v>84</v>
-      </c>
       <c r="M1" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1575,40 +1459,40 @@
         <v>8106637137</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="0">
         <v>8106637137</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="768" activeTab="1"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="768" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="emaildata" sheetId="4" r:id="rId3"/>
     <sheet name="MobileNumberFree" sheetId="5" r:id="rId4"/>
     <sheet name="MobileNumberUpi" sheetId="6" r:id="rId5"/>
+    <sheet name="RazorPay" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
   <si>
     <t>Username</t>
   </si>
@@ -106,9 +107,6 @@
     <t>jakkamsairam3@gmail.com</t>
   </si>
   <si>
-    <t>Vision2024</t>
-  </si>
-  <si>
     <t>BuyFor_Attendee</t>
   </si>
   <si>
@@ -211,9 +209,6 @@
     <t>a_email</t>
   </si>
   <si>
-    <t>Raj</t>
-  </si>
-  <si>
     <t>raj@gmail.com</t>
   </si>
   <si>
@@ -277,15 +272,6 @@
     <t>Amazon order id</t>
   </si>
   <si>
-    <t>20240301064318137755</t>
-  </si>
-  <si>
-    <t>20240301064807137755</t>
-  </si>
-  <si>
-    <t>vision2025</t>
-  </si>
-  <si>
     <t>PhonpeTransactionId</t>
   </si>
   <si>
@@ -325,94 +311,64 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>20240307063942137789</t>
-  </si>
-  <si>
-    <t>20240307070609137755</t>
-  </si>
-  <si>
-    <t>20240307070646137755</t>
-  </si>
-  <si>
-    <t>20240307070750137755</t>
-  </si>
-  <si>
-    <t>20240307071007137755</t>
-  </si>
-  <si>
-    <t>20240307071037137755</t>
-  </si>
-  <si>
-    <t>20240307071103137755</t>
-  </si>
-  <si>
     <t>Rahul</t>
   </si>
   <si>
-    <t>20240307071253137789</t>
-  </si>
-  <si>
-    <t>20240307071330137789</t>
-  </si>
-  <si>
-    <t>20240307071353137789</t>
-  </si>
-  <si>
-    <t>20240307071619137755</t>
-  </si>
-  <si>
-    <t>20240307071701137755</t>
-  </si>
-  <si>
-    <t>20240307071803137755</t>
-  </si>
-  <si>
-    <t>20240307071904137755</t>
-  </si>
-  <si>
-    <t>20240307071930137755</t>
-  </si>
-  <si>
-    <t>20240307071953137755</t>
-  </si>
-  <si>
-    <t>20240307072016137789</t>
-  </si>
-  <si>
-    <t>20240307072051137789</t>
-  </si>
-  <si>
-    <t>20240307072112137789</t>
-  </si>
-  <si>
-    <t>20240307072753137755</t>
-  </si>
-  <si>
-    <t>20240307072830137755</t>
-  </si>
-  <si>
-    <t>20240307072936137755</t>
-  </si>
-  <si>
-    <t>20240307073030137755</t>
-  </si>
-  <si>
-    <t>20240307073053137755</t>
-  </si>
-  <si>
-    <t>20240307073120137755</t>
-  </si>
-  <si>
-    <t>20240307073145137789</t>
-  </si>
-  <si>
-    <t>20240307073225137789</t>
-  </si>
-  <si>
-    <t>20240307073246137789</t>
-  </si>
-  <si>
-    <t>20240307100228137789</t>
+    <t>VISION2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>20240313063806136412</t>
+  </si>
+  <si>
+    <t>20240313063834136412</t>
+  </si>
+  <si>
+    <t>20240313063900136412</t>
+  </si>
+  <si>
+    <t>20240313063927137789</t>
+  </si>
+  <si>
+    <t>20240313064054137755</t>
+  </si>
+  <si>
+    <t>20240313064106137755</t>
+  </si>
+  <si>
+    <t>20240313064158136412</t>
+  </si>
+  <si>
+    <t>20240313064317136412</t>
+  </si>
+  <si>
+    <t>20240313064432136412</t>
+  </si>
+  <si>
+    <t>Contact_number</t>
+  </si>
+  <si>
+    <t>Upi_Id</t>
+  </si>
+  <si>
+    <t>jakkam.sairam@ybl</t>
+  </si>
+  <si>
+    <t>20240313104140136412</t>
+  </si>
+  <si>
+    <t>20240313104415136412</t>
+  </si>
+  <si>
+    <t>20240313105039136412</t>
+  </si>
+  <si>
+    <t>20240313115827136412</t>
+  </si>
+  <si>
+    <t>20240313130400136412</t>
   </si>
 </sst>
 </file>
@@ -790,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -851,16 +807,16 @@
         <v>18</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="92" customHeight="1">
@@ -874,13 +830,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1">
         <v>8106637137</v>
@@ -907,16 +863,16 @@
         <v>22</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -933,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -962,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>25</v>
@@ -980,34 +936,34 @@
         <v>6</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="K1" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="L1" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="P1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="Q1" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="R1" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="R1" t="s" s="0">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="29">
@@ -1015,19 +971,19 @@
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -1042,28 +998,28 @@
         <v>14</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1115,34 +1071,34 @@
         <v>25</v>
       </c>
       <c r="C1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s" s="0">
+      <c r="F1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="G1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="I1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="J1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="K1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="L1" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="L1" t="s" s="0">
-        <v>39</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>15</v>
@@ -1157,54 +1113,54 @@
         <v>18</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="91.5" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D2" s="0">
         <v>8106637137</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>8</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
@@ -1213,10 +1169,10 @@
         <v>8106637137</v>
       </c>
       <c r="K2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s" s="0">
         <v>40</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>19</v>
@@ -1234,19 +1190,19 @@
         <v>26</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1220,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1274,6 +1230,8 @@
     <col min="3" max="3" customWidth="true" width="12.7265625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.54296875"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.0"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
@@ -1281,19 +1239,19 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="E1" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>60</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>3</v>
@@ -1302,87 +1260,87 @@
         <v>4</v>
       </c>
       <c r="H1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="J1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="M1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="N1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="O1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="P1" t="s" s="0">
         <v>68</v>
-      </c>
-      <c r="O1" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="P1" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="0">
-        <v>8106637137</v>
+        <v>9985345549</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H2" s="0">
+        <v>74</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="J2" t="s" s="0">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M2" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="N2" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="O2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>75</v>
-      </c>
       <c r="P2" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1394,7 +1352,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1412,19 +1370,19 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="E1" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>60</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>3</v>
@@ -1433,72 +1391,109 @@
         <v>4</v>
       </c>
       <c r="H1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="J1" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="M1" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="N1" t="s" s="0">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="0">
-        <v>8106637137</v>
+        <v>9985345549</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="H2" s="0">
+        <v>74</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="0">
         <v>8106637137</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="J2" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.90625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="0">
+        <v>8106637137</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
   <si>
     <t>Username</t>
   </si>
@@ -320,55 +320,178 @@
     <t xml:space="preserve">Kumar </t>
   </si>
   <si>
-    <t>20240313063806136412</t>
-  </si>
-  <si>
-    <t>20240313063834136412</t>
-  </si>
-  <si>
-    <t>20240313063900136412</t>
-  </si>
-  <si>
-    <t>20240313063927137789</t>
-  </si>
-  <si>
-    <t>20240313064054137755</t>
-  </si>
-  <si>
-    <t>20240313064106137755</t>
-  </si>
-  <si>
-    <t>20240313064158136412</t>
-  </si>
-  <si>
-    <t>20240313064317136412</t>
-  </si>
-  <si>
-    <t>20240313064432136412</t>
-  </si>
-  <si>
     <t>Contact_number</t>
   </si>
   <si>
     <t>Upi_Id</t>
   </si>
   <si>
+    <t>20240314050311136412</t>
+  </si>
+  <si>
+    <t>20240314050414136412</t>
+  </si>
+  <si>
+    <t>20240314050653136412</t>
+  </si>
+  <si>
+    <t>20240314050735137789</t>
+  </si>
+  <si>
+    <t>20240314050941137755</t>
+  </si>
+  <si>
+    <t>20240314051118137789</t>
+  </si>
+  <si>
+    <t>20240314110054137789</t>
+  </si>
+  <si>
+    <t>20240314122302136412</t>
+  </si>
+  <si>
+    <t>20240315045244136412</t>
+  </si>
+  <si>
+    <t>20240315045406137755</t>
+  </si>
+  <si>
     <t>jakkam.sairam@ybl</t>
   </si>
   <si>
-    <t>20240313104140136412</t>
-  </si>
-  <si>
-    <t>20240313104415136412</t>
-  </si>
-  <si>
-    <t>20240313105039136412</t>
-  </si>
-  <si>
-    <t>20240313115827136412</t>
-  </si>
-  <si>
-    <t>20240313130400136412</t>
+    <t>20240315045643136412</t>
+  </si>
+  <si>
+    <t>20240315045657137755</t>
+  </si>
+  <si>
+    <t>20240315045904136412</t>
+  </si>
+  <si>
+    <t>20240315050036137789</t>
+  </si>
+  <si>
+    <t>20240315050048137789</t>
+  </si>
+  <si>
+    <t>20240315050102137755</t>
+  </si>
+  <si>
+    <t>20240315050128136412</t>
+  </si>
+  <si>
+    <t>20240315050422137789</t>
+  </si>
+  <si>
+    <t>20240315050521137789</t>
+  </si>
+  <si>
+    <t>20240315050701137755</t>
+  </si>
+  <si>
+    <t>20240315050759137789</t>
+  </si>
+  <si>
+    <t>20240315050817137789</t>
+  </si>
+  <si>
+    <t>20240315051355136412</t>
+  </si>
+  <si>
+    <t>20240315051422136412</t>
+  </si>
+  <si>
+    <t>20240315051452136412</t>
+  </si>
+  <si>
+    <t>20240315051616137755</t>
+  </si>
+  <si>
+    <t>20240315051629137755</t>
+  </si>
+  <si>
+    <t>20240315051644137755</t>
+  </si>
+  <si>
+    <t>20240315051801137789</t>
+  </si>
+  <si>
+    <t>20240315051818137789</t>
+  </si>
+  <si>
+    <t>20240315051833137789</t>
+  </si>
+  <si>
+    <t>20240315052039137789</t>
+  </si>
+  <si>
+    <t>20240315052710137789</t>
+  </si>
+  <si>
+    <t>20240315062934136412</t>
+  </si>
+  <si>
+    <t>20240315070629136412</t>
+  </si>
+  <si>
+    <t>20240315070945136412</t>
+  </si>
+  <si>
+    <t>20240315073037136412</t>
+  </si>
+  <si>
+    <t>20240315073226136412</t>
+  </si>
+  <si>
+    <t>20240315102402136412</t>
+  </si>
+  <si>
+    <t>20240315103018137755</t>
+  </si>
+  <si>
+    <t>20240315103827137755</t>
+  </si>
+  <si>
+    <t>20240315111940137755</t>
+  </si>
+  <si>
+    <t>20240315112005136412</t>
+  </si>
+  <si>
+    <t>20240315112353137755</t>
+  </si>
+  <si>
+    <t>20240315112417136412</t>
+  </si>
+  <si>
+    <t>20240315112455136412</t>
+  </si>
+  <si>
+    <t>20240315112918137789</t>
+  </si>
+  <si>
+    <t>20240315112931137789</t>
+  </si>
+  <si>
+    <t>20240315112946137755</t>
+  </si>
+  <si>
+    <t>20240315113014136412</t>
+  </si>
+  <si>
+    <t>20240315113245137789</t>
+  </si>
+  <si>
+    <t>20240315113346137789</t>
+  </si>
+  <si>
+    <t>20240315113622137755</t>
+  </si>
+  <si>
+    <t>20240315113721137789</t>
+  </si>
+  <si>
+    <t>20240315113737137789</t>
   </si>
 </sst>
 </file>
@@ -863,16 +986,16 @@
         <v>22</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1007,16 +1130,16 @@
         <v>46</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>89</v>
@@ -1190,10 +1313,10 @@
         <v>26</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="T2" t="s" s="0">
         <v>32</v>
@@ -1289,7 +1412,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="0">
-        <v>9985345549</v>
+        <v>8106637137</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>89</v>
@@ -1316,7 +1439,7 @@
         <v>8106637137</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>69</v>
@@ -1352,7 +1475,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1414,7 +1537,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="0">
-        <v>9985345549</v>
+        <v>8106637137</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>89</v>
@@ -1447,10 +1570,10 @@
         <v>46</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1467,20 +1590,21 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1488,7 +1612,7 @@
         <v>8106637137</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="768" activeTab="5"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="734" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="MobileNumberFree" sheetId="5" r:id="rId4"/>
     <sheet name="MobileNumberUpi" sheetId="6" r:id="rId5"/>
     <sheet name="RazorPay" sheetId="7" r:id="rId6"/>
+    <sheet name="ApplicationLogin" sheetId="8" r:id="rId7"/>
+    <sheet name="OrderRazorPay" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
   <si>
     <t>Username</t>
   </si>
@@ -278,9 +280,6 @@
     <t>Amazon TransID</t>
   </si>
   <si>
-    <t>Vip order ID_phonepe trans</t>
-  </si>
-  <si>
     <t xml:space="preserve">Free order_phonepe trans </t>
   </si>
   <si>
@@ -293,9 +292,6 @@
     <t>vision2024</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Rupesh</t>
   </si>
   <si>
@@ -326,172 +322,112 @@
     <t>Upi_Id</t>
   </si>
   <si>
-    <t>20240314050311136412</t>
-  </si>
-  <si>
-    <t>20240314050414136412</t>
-  </si>
-  <si>
-    <t>20240314050653136412</t>
-  </si>
-  <si>
-    <t>20240314050735137789</t>
-  </si>
-  <si>
-    <t>20240314050941137755</t>
-  </si>
-  <si>
-    <t>20240314051118137789</t>
-  </si>
-  <si>
-    <t>20240314110054137789</t>
-  </si>
-  <si>
-    <t>20240314122302136412</t>
-  </si>
-  <si>
-    <t>20240315045244136412</t>
-  </si>
-  <si>
-    <t>20240315045406137755</t>
-  </si>
-  <si>
     <t>jakkam.sairam@ybl</t>
   </si>
   <si>
-    <t>20240315045643136412</t>
-  </si>
-  <si>
-    <t>20240315045657137755</t>
-  </si>
-  <si>
-    <t>20240315045904136412</t>
-  </si>
-  <si>
-    <t>20240315050036137789</t>
-  </si>
-  <si>
-    <t>20240315050048137789</t>
-  </si>
-  <si>
-    <t>20240315050102137755</t>
-  </si>
-  <si>
-    <t>20240315050128136412</t>
-  </si>
-  <si>
-    <t>20240315050422137789</t>
-  </si>
-  <si>
-    <t>20240315050521137789</t>
-  </si>
-  <si>
-    <t>20240315050701137755</t>
-  </si>
-  <si>
-    <t>20240315050759137789</t>
-  </si>
-  <si>
-    <t>20240315050817137789</t>
-  </si>
-  <si>
-    <t>20240315051355136412</t>
-  </si>
-  <si>
-    <t>20240315051422136412</t>
-  </si>
-  <si>
-    <t>20240315051452136412</t>
-  </si>
-  <si>
-    <t>20240315051616137755</t>
-  </si>
-  <si>
-    <t>20240315051629137755</t>
-  </si>
-  <si>
-    <t>20240315051644137755</t>
-  </si>
-  <si>
-    <t>20240315051801137789</t>
-  </si>
-  <si>
-    <t>20240315051818137789</t>
-  </si>
-  <si>
-    <t>20240315051833137789</t>
-  </si>
-  <si>
-    <t>20240315052039137789</t>
-  </si>
-  <si>
-    <t>20240315052710137789</t>
-  </si>
-  <si>
-    <t>20240315062934136412</t>
-  </si>
-  <si>
-    <t>20240315070629136412</t>
-  </si>
-  <si>
-    <t>20240315070945136412</t>
-  </si>
-  <si>
-    <t>20240315073037136412</t>
-  </si>
-  <si>
-    <t>20240315073226136412</t>
-  </si>
-  <si>
-    <t>20240315102402136412</t>
-  </si>
-  <si>
-    <t>20240315103018137755</t>
-  </si>
-  <si>
-    <t>20240315103827137755</t>
-  </si>
-  <si>
-    <t>20240315111940137755</t>
-  </si>
-  <si>
-    <t>20240315112005136412</t>
-  </si>
-  <si>
-    <t>20240315112353137755</t>
-  </si>
-  <si>
-    <t>20240315112417136412</t>
-  </si>
-  <si>
-    <t>20240315112455136412</t>
-  </si>
-  <si>
-    <t>20240315112918137789</t>
-  </si>
-  <si>
-    <t>20240315112931137789</t>
-  </si>
-  <si>
-    <t>20240315112946137755</t>
-  </si>
-  <si>
-    <t>20240315113014136412</t>
-  </si>
-  <si>
-    <t>20240315113245137789</t>
-  </si>
-  <si>
-    <t>20240315113346137789</t>
-  </si>
-  <si>
-    <t>20240315113622137755</t>
-  </si>
-  <si>
-    <t>20240315113721137789</t>
-  </si>
-  <si>
-    <t>20240315113737137789</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vip order ID_phonepe </t>
+  </si>
+  <si>
+    <t>20240319093115137789</t>
+  </si>
+  <si>
+    <t>20240319093443137755</t>
+  </si>
+  <si>
+    <t>20240319093623137755</t>
+  </si>
+  <si>
+    <t>RazorPayCharges</t>
+  </si>
+  <si>
+    <t>PlatFormFee (%)</t>
+  </si>
+  <si>
+    <t>Ticket Name</t>
+  </si>
+  <si>
+    <t>OrderBy_name</t>
+  </si>
+  <si>
+    <t>OrderBy_email</t>
+  </si>
+  <si>
+    <t>Ticket cost_beforeDiscount</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Ticket_quantity</t>
+  </si>
+  <si>
+    <t>Cart Value</t>
+  </si>
+  <si>
+    <t>platformFee</t>
+  </si>
+  <si>
+    <t>platformFeeTax</t>
+  </si>
+  <si>
+    <t>RazorPayCharge</t>
+  </si>
+  <si>
+    <t>paymentCollected</t>
+  </si>
+  <si>
+    <t>AmountOwe To Organizer</t>
+  </si>
+  <si>
+    <t>Vip</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>platformfee+tax+cartvalue</t>
+  </si>
+  <si>
+    <t>20240320050533136412</t>
+  </si>
+  <si>
+    <t>20240320050604136412</t>
+  </si>
+  <si>
+    <t>20240320050636136412</t>
+  </si>
+  <si>
+    <t>20240320050649137755</t>
+  </si>
+  <si>
+    <t>20240320050838137789</t>
+  </si>
+  <si>
+    <t>20240320050919137789</t>
+  </si>
+  <si>
+    <t>20240320050957137789</t>
+  </si>
+  <si>
+    <t>20240320060614136412</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case </t>
+  </si>
+  <si>
+    <t>I(org) Will Pay completely</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -499,7 +435,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +447,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -537,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -552,6 +496,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -869,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -882,7 +831,7 @@
     <col min="12" max="12" customWidth="true" width="15.54296875"/>
     <col min="13" max="13" customWidth="true" width="45.26953125"/>
     <col min="14" max="14" customWidth="true" width="24.08984375"/>
-    <col min="15" max="15" customWidth="true" width="16.90625"/>
+    <col min="15" max="15" customWidth="true" width="22.90625"/>
     <col min="17" max="18" bestFit="true" customWidth="true" width="21.08984375"/>
   </cols>
   <sheetData>
@@ -953,13 +902,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G2" s="1">
         <v>8106637137</v>
@@ -986,16 +935,16 @@
         <v>22</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1012,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1100,10 +1049,10 @@
         <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>74</v>
@@ -1130,19 +1079,19 @@
         <v>46</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1160,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="K1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1239,10 +1188,10 @@
         <v>41</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>54</v>
@@ -1254,10 +1203,10 @@
         <v>83</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="91.5" customHeight="1">
@@ -1265,10 +1214,10 @@
         <v>48</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D2" s="0">
         <v>8106637137</v>
@@ -1280,10 +1229,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
@@ -1313,10 +1262,10 @@
         <v>26</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="T2" t="s" s="0">
         <v>32</v>
@@ -1343,7 +1292,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1357,7 +1306,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="8.0"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1415,7 +1364,7 @@
         <v>8106637137</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>14</v>
@@ -1427,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>74</v>
@@ -1439,7 +1388,7 @@
         <v>8106637137</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>69</v>
@@ -1475,7 +1424,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1540,7 +1489,7 @@
         <v>8106637137</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>14</v>
@@ -1552,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>74</v>
@@ -1564,16 +1513,16 @@
         <v>8106637137</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>46</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1601,10 +1550,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1612,7 +1561,7 @@
         <v>8106637137</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1621,4 +1570,192 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="2" max="2" customWidth="true" width="16.453125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.453125"/>
+    <col min="4" max="4" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="6" max="6" customWidth="true" width="14.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.36328125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="14" max="14" customWidth="true" width="14.0"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <f>C2/100*K2</f>
+        <v>0.03</v>
+      </c>
+      <c r="M2" s="6">
+        <f>18/100*L2</f>
+        <v>5.3999999999999994E-3</v>
+      </c>
+      <c r="N2" s="6">
+        <f>K2+L2+M2</f>
+        <v>1.0354000000000001</v>
+      </c>
+      <c r="O2" s="6">
+        <f>+B2/100*K2</f>
+        <v>0.02</v>
+      </c>
+      <c r="P2" s="6">
+        <f>K2+O2</f>
+        <v>1.02</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>+P2-L2-M2-O2</f>
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="P3" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="734" activeTab="7"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="887" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,9 @@
     <sheet name="MobileNumberUpi" sheetId="6" r:id="rId5"/>
     <sheet name="RazorPay" sheetId="7" r:id="rId6"/>
     <sheet name="ApplicationLogin" sheetId="8" r:id="rId7"/>
-    <sheet name="OrderRazorPay" sheetId="9" r:id="rId8"/>
+    <sheet name="Evaluator" sheetId="9" r:id="rId8"/>
+    <sheet name="OrderRazorPayValidation" sheetId="11" r:id="rId9"/>
+    <sheet name="OrderRazorPayValidation(payer)" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
   <si>
     <t>Username</t>
   </si>
@@ -394,9 +396,6 @@
     <t>platformfee+tax+cartvalue</t>
   </si>
   <si>
-    <t>20240320050533136412</t>
-  </si>
-  <si>
     <t>20240320050604136412</t>
   </si>
   <si>
@@ -415,9 +414,6 @@
     <t>20240320050957137789</t>
   </si>
   <si>
-    <t>20240320060614136412</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -427,14 +423,34 @@
     <t>I(org) Will Pay completely</t>
   </si>
   <si>
-    <t/>
+    <t>payment_cpllected</t>
+  </si>
+  <si>
+    <t>20240322045823136412</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20240322065248136412</t>
+  </si>
+  <si>
+    <t>payer (attendee)will pay</t>
+  </si>
+  <si>
+    <t>razor pay charges</t>
+  </si>
+  <si>
+    <t>cartvalue(test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payer(attendee) will pay </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -481,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -501,6 +517,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,15 +841,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="11.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="10" max="10" customWidth="true" width="25.08984375"/>
-    <col min="11" max="11" customWidth="true" width="14.90625"/>
-    <col min="12" max="12" customWidth="true" width="15.54296875"/>
-    <col min="13" max="13" customWidth="true" width="45.26953125"/>
-    <col min="14" max="14" customWidth="true" width="24.08984375"/>
-    <col min="15" max="15" customWidth="true" width="22.90625"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.08984375" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="45.26953125" customWidth="1"/>
+    <col min="14" max="14" width="24.08984375" customWidth="1"/>
+    <col min="15" max="15" width="22.90625" customWidth="1"/>
+    <col min="17" max="18" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29">
@@ -934,17 +951,17 @@
       <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>122</v>
+      <c r="O2" t="s">
+        <v>134</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" t="s">
         <v>123</v>
-      </c>
-      <c r="R2" t="s" s="0">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -952,6 +969,137 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="F2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="5813" display="5813"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -967,32 +1115,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0"/>
-    <col min="2" max="2" customWidth="true" width="30.7265625"/>
-    <col min="3" max="3" customWidth="true" width="30.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.1796875"/>
-    <col min="7" max="7" customWidth="true" width="18.0"/>
-    <col min="8" max="8" customWidth="true" width="16.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="24.08984375"/>
-    <col min="14" max="14" customWidth="true" width="27.26953125"/>
-    <col min="15" max="17" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.26953125" customWidth="1"/>
+    <col min="15" max="17" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1007,34 +1155,34 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1048,7 +1196,7 @@
       <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1063,34 +1211,34 @@
       <c r="H2" s="1">
         <v>8106637137</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>8106637137</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="P2" t="s" s="0">
+      <c r="N2" t="s">
         <v>126</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="O2" t="s">
         <v>126</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="P2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1115,61 +1263,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.08984375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="6" max="6" customWidth="true" width="13.36328125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="10" max="10" customWidth="true" width="16.1796875"/>
-    <col min="11" max="11" customWidth="true" width="19.26953125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="17" max="17" customWidth="true" width="16.81640625"/>
-    <col min="18" max="18" customWidth="true" width="21.36328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="22.6328125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="18.08984375"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="24" max="24" customWidth="true" width="12.90625"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" customWidth="1"/>
+    <col min="18" max="18" width="21.36328125" customWidth="1"/>
+    <col min="19" max="19" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="43.5">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1213,37 +1361,37 @@
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>8106637137</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>91</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>8106637137</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1261,19 +1409,19 @@
       <c r="Q2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R2" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="S2" t="s" s="0">
+      <c r="R2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" t="s">
         <v>101</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1297,115 +1445,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="2" max="2" customWidth="true" width="11.90625"/>
-    <col min="3" max="3" customWidth="true" width="12.7265625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>8106637137</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>8106637137</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
         <v>69</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>72</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>73</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="P2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1424,104 +1572,104 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.1796875"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>8106637137</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>8106637137</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>103</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1544,20 +1692,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.1796875"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>8106637137</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1582,15 +1730,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="2" max="2" customWidth="true" width="16.453125"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1613,149 +1761,420 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.453125"/>
-    <col min="4" max="4" customWidth="true" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.08984375"/>
-    <col min="6" max="6" customWidth="true" width="14.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.36328125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="14" max="14" customWidth="true" width="14.0"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.36328125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.7265625"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2">
+        <v>800</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>H2*J2</f>
+        <v>800</v>
+      </c>
+      <c r="L2" s="6">
+        <f>C2/100*K2</f>
+        <v>40</v>
+      </c>
+      <c r="M2" s="6">
+        <f>18/100*L2</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="N2" s="6">
+        <f>K2+L2+M2</f>
+        <v>847.2</v>
+      </c>
+      <c r="O2" s="6">
+        <f>+B2/100*N2</f>
+        <v>16.944000000000003</v>
+      </c>
+      <c r="P2" s="6">
+        <f>K2</f>
+        <v>800</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>+P2-L2-M2-O2</f>
+        <v>735.85599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="P3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" t="s">
+        <v>136</v>
+      </c>
+      <c r="S6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7">
+        <v>800</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>R7+S7</f>
+        <v>816</v>
+      </c>
+      <c r="L7" s="6">
+        <f>C7/100*K7</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="M7" s="6">
+        <f>18/100*L7</f>
+        <v>7.3440000000000003</v>
+      </c>
+      <c r="N7" s="6">
+        <f>K7+L7+M7</f>
+        <v>864.14400000000001</v>
+      </c>
+      <c r="O7" s="6">
+        <f>+B7/100*N7</f>
+        <v>17.282880000000002</v>
+      </c>
+      <c r="P7" s="6">
+        <f>K7</f>
+        <v>816</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>P7-O7-M7-L7</f>
+        <v>750.57312000000002</v>
+      </c>
+      <c r="R7">
+        <f>B7/100*S7</f>
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <f>H7*J7</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="Q8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="5813" display="5813"/>
+    <hyperlink ref="E7" r:id="rId2" location="5813" display="5813"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="15" max="16" width="15.1796875" customWidth="1"/>
+    <col min="17" max="17" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="J1" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="K1" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="L1" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="M1" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="N1" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="P1" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="0">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="J2" s="0">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2" s="0">
+      <c r="L2" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="P2" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="6">
-        <f>C2/100*K2</f>
-        <v>0.03</v>
-      </c>
-      <c r="M2" s="6">
-        <f>18/100*L2</f>
-        <v>5.3999999999999994E-3</v>
-      </c>
-      <c r="N2" s="6">
-        <f>K2+L2+M2</f>
-        <v>1.0354000000000001</v>
-      </c>
-      <c r="O2" s="6">
-        <f>+B2/100*K2</f>
-        <v>0.02</v>
-      </c>
-      <c r="P2" s="6">
-        <f>K2+O2</f>
-        <v>1.02</v>
-      </c>
       <c r="Q2" s="6">
-        <f>+P2-L2-M2-O2</f>
-        <v>0.96460000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="P3" t="s" s="0">
-        <v>130</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="5813" display="5813"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="887" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" tabRatio="887" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="logincred" sheetId="2" r:id="rId1"/>
@@ -825,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2165,7 +2165,7 @@
         <v>0.02</v>
       </c>
       <c r="P2" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="6">
         <v>0.92</v>
